--- a/Documents/Time log and Project Timeline.xlsx
+++ b/Documents/Time log and Project Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4435487C-17C9-4537-99AA-3DA8653AEA2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3074914-5E5C-4E11-8051-E069F5267888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Task 3</t>
   </si>
@@ -60,15 +60,6 @@
   </si>
   <si>
     <t>This is an empty row</t>
-  </si>
-  <si>
-    <t>No. Days</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Assigned To</t>
   </si>
   <si>
     <t>Progress</t>
@@ -96,9 +87,6 @@
   </si>
   <si>
     <t>Legend:</t>
-  </si>
-  <si>
-    <t>Unassigned</t>
   </si>
   <si>
     <t>Milestone Description</t>
@@ -173,9 +161,6 @@
     <t>Presentation or exam Preperation</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>PROJECT 1</t>
   </si>
   <si>
@@ -198,6 +183,15 @@
   </si>
   <si>
     <t>created spreadsheet and separated some of the projects on git hub into sepatate to-do lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>End</t>
   </si>
 </sst>
 </file>
@@ -353,7 +347,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,31 +379,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,7 +593,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -734,10 +722,14 @@
     <xf numFmtId="165" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
@@ -753,21 +745,20 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="9" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -785,6 +776,15 @@
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
   <dxfs count="29">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1068,15 +1068,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -1356,7 +1347,7 @@
                   <a14:compatExt spid="_x0000_s6149"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1397,12 +1388,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name=" " dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="  " dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
+    <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="End" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1686,51 +1677,51 @@
   <cols>
     <col min="1" max="1" width="16.08984375" customWidth="1"/>
     <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="44.54296875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="44.54296875" style="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="64" t="s">
-        <v>42</v>
+      <c r="C1" s="54" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="63">
+      <c r="A2" s="53">
         <v>0.29329861111111111</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="63">
+      <c r="A3" s="53">
         <v>0.37663194444444442</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63">
+      <c r="A4" s="53">
         <v>0.37663194444444442</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1746,8 +1737,8 @@
   </sheetPr>
   <dimension ref="A1:BL18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="78" zoomScaleNormal="10" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B2" zoomScale="78" zoomScaleNormal="10" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1766,17 +1757,17 @@
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="1"/>
       <c r="F1"/>
       <c r="G1" s="7"/>
       <c r="I1" s="40" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="20"/>
@@ -1805,70 +1796,68 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="F2" s="23"/>
       <c r="G2" s="21"/>
-      <c r="I2" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="N2" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
+      <c r="I2" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="N2" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
       <c r="R2" s="20"/>
-      <c r="S2" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
+      <c r="S2" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
       <c r="W2" s="20"/>
-      <c r="X2" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
+      <c r="X2" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
       <c r="AB2" s="20"/>
-      <c r="AC2" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
-      <c r="D3" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="57">
+      <c r="D3" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="57"/>
+      <c r="F3" s="59">
         <v>44232</v>
       </c>
-      <c r="G3" s="58"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="55"/>
+        <v>20</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="57"/>
       <c r="F4" s="45">
         <v>0</v>
       </c>
@@ -1955,15 +1944,15 @@
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+        <v>21</v>
+      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
       <c r="I5" s="49">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
         <v>44232</v>
@@ -2191,7 +2180,7 @@
     </row>
     <row r="6" spans="1:64" s="20" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -2259,25 +2248,25 @@
     </row>
     <row r="7" spans="1:64" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="29" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="25" t="str">
@@ -2507,7 +2496,7 @@
     </row>
     <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="30"/>
@@ -2575,35 +2564,35 @@
     <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
       <c r="B9" s="42" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" s="34"/>
-      <c r="D9" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="62">
+      <c r="D9" s="34"/>
+      <c r="E9" s="31">
+        <v>0</v>
+      </c>
+      <c r="F9" s="52">
         <v>0.20996527777777776</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="26"/>
-      <c r="I9" s="38" t="str">
+      <c r="I9" s="65" t="str">
         <f t="shared" ref="I9:X15" ca="1" si="6">IF(AND($C9="Goal",I$5&gt;=$F9,I$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milestone",I$5&gt;=$F9,I$5&lt;=$F9+$G9-1),1,""))</f>
         <v/>
       </c>
-      <c r="J9" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="K9" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="L9" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="M9" s="38" t="str">
+      <c r="J9" s="65" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="K9" s="65" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L9" s="65" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="M9" s="65" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
@@ -2815,14 +2804,14 @@
     <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14"/>
       <c r="B10" s="41" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="31">
         <v>0</v>
       </c>
-      <c r="F10" s="62">
+      <c r="F10" s="52">
         <v>0.37663194444444442</v>
       </c>
       <c r="G10" s="33"/>
@@ -2843,7 +2832,7 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="M10" s="38" t="str">
+      <c r="M10" s="65" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
@@ -4001,7 +3990,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
@@ -4236,10 +4225,10 @@
     </row>
     <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -4339,56 +4328,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL16">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AM4">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:BL4">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>AND(J$5&lt;=EOMONTH($I$5,2),J$5&gt;EOMONTH($I$5,0),J$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:BL4">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BL15">
-    <cfRule type="expression" dxfId="9" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
       <formula>AND($C8="Low Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="43" stopIfTrue="1">
       <formula>AND($C8="High Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="61" stopIfTrue="1">
       <formula>AND($C8="On Track",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="62" stopIfTrue="1">
       <formula>AND($C8="Med Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="63" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="4" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="71" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="72" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="73" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="74" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="75" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4522,7 +4511,7 @@
     </row>
     <row r="2" spans="1:1" ht="84.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4532,12 +4521,12 @@
     </row>
     <row r="4" spans="1:1" s="10" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Time log and Project Timeline.xlsx
+++ b/Documents/Time log and Project Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3074914-5E5C-4E11-8051-E069F5267888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5CFE78-8E26-4BBA-AD21-52A57750991A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -729,7 +729,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
@@ -745,19 +751,13 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="9" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1738,7 +1738,7 @@
   <dimension ref="A1:BL18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B2" zoomScale="78" zoomScaleNormal="10" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1802,37 +1802,37 @@
       <c r="C2" s="18"/>
       <c r="F2" s="23"/>
       <c r="G2" s="21"/>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="N2" s="63" t="s">
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="N2" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
       <c r="R2" s="20"/>
-      <c r="S2" s="62" t="s">
+      <c r="S2" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
       <c r="W2" s="20"/>
-      <c r="X2" s="55" t="s">
+      <c r="X2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
       <c r="AB2" s="20"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
@@ -1840,24 +1840,24 @@
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="59">
+      <c r="E3" s="59"/>
+      <c r="F3" s="61">
         <v>44232</v>
       </c>
-      <c r="G3" s="60"/>
+      <c r="G3" s="62"/>
       <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="57"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="45">
         <v>0</v>
       </c>
@@ -1946,13 +1946,13 @@
       <c r="A5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
       <c r="I5" s="49">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
         <v>44232</v>
@@ -2576,31 +2576,31 @@
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="26"/>
-      <c r="I9" s="65" t="str">
+      <c r="I9" s="55" t="str">
         <f t="shared" ref="I9:X15" ca="1" si="6">IF(AND($C9="Goal",I$5&gt;=$F9,I$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milestone",I$5&gt;=$F9,I$5&lt;=$F9+$G9-1),1,""))</f>
         <v/>
       </c>
-      <c r="J9" s="65" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="K9" s="65" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="L9" s="65" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="M9" s="65" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="N9" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="O9" s="38" t="str">
+      <c r="J9" s="55" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="K9" s="55" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L9" s="55" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="M9" s="55" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="N9" s="55" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="O9" s="55" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
@@ -2832,15 +2832,15 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="M10" s="65" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="N10" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="O10" s="38" t="str">
+      <c r="M10" s="55" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="N10" s="55" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="O10" s="55" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>

--- a/Documents/Time log and Project Timeline.xlsx
+++ b/Documents/Time log and Project Timeline.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5CFE78-8E26-4BBA-AD21-52A57750991A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C32F1B2-AF34-405F-A613-B220D2C9C2BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Task 3</t>
   </si>
@@ -193,14 +193,29 @@
   <si>
     <t>End</t>
   </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>started jupyter notebook, loaded data, and began filtering</t>
+  </si>
+  <si>
+    <t>Danielle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helped with filtering. </t>
+  </si>
+  <si>
+    <t>Added notes to jupyter notebook</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="d"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -576,7 +591,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -704,22 +719,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1667,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CC03F1-69F5-44F9-B6AB-0FB9DFF6FAEC}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1722,6 +1737,39 @@
       </c>
       <c r="C4" s="54" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="53">
+        <v>0.45996527777777779</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="53">
+        <v>0.45996527777777779</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="53">
+        <v>0.50163194444444448</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1737,7 +1785,7 @@
   </sheetPr>
   <dimension ref="A1:BL18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B2" zoomScale="78" zoomScaleNormal="10" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="B4" zoomScale="78" zoomScaleNormal="10" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Time log and Project Timeline.xlsx
+++ b/Documents/Time log and Project Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C32F1B2-AF34-405F-A613-B220D2C9C2BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5A5068-6B70-443D-BA32-56EE5FF98366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">Helped with filtering. </t>
   </si>
   <si>
-    <t>Added notes to jupyter notebook</t>
+    <t>Added notes to jupyter notebook. Filtered vehicle and casualties tables according to Birmingham</t>
   </si>
 </sst>
 </file>
@@ -1685,7 +1685,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Documents/Time log and Project Timeline.xlsx
+++ b/Documents/Time log and Project Timeline.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5CFE78-8E26-4BBA-AD21-52A57750991A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5A5068-6B70-443D-BA32-56EE5FF98366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Task 3</t>
   </si>
@@ -193,14 +193,29 @@
   <si>
     <t>End</t>
   </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>started jupyter notebook, loaded data, and began filtering</t>
+  </si>
+  <si>
+    <t>Danielle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helped with filtering. </t>
+  </si>
+  <si>
+    <t>Added notes to jupyter notebook. Filtered vehicle and casualties tables according to Birmingham</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="d"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -576,7 +591,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -704,22 +719,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1667,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CC03F1-69F5-44F9-B6AB-0FB9DFF6FAEC}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1722,6 +1737,39 @@
       </c>
       <c r="C4" s="54" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="53">
+        <v>0.45996527777777779</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="53">
+        <v>0.45996527777777779</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="53">
+        <v>0.50163194444444448</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1737,7 +1785,7 @@
   </sheetPr>
   <dimension ref="A1:BL18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B2" zoomScale="78" zoomScaleNormal="10" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="B4" zoomScale="78" zoomScaleNormal="10" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Time log and Project Timeline.xlsx
+++ b/Documents/Time log and Project Timeline.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5A5068-6B70-443D-BA32-56EE5FF98366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1DAB10-E912-45B3-B1F3-E6D6D205BB41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Task 3</t>
   </si>
@@ -208,14 +208,20 @@
   <si>
     <t>Added notes to jupyter notebook. Filtered vehicle and casualties tables according to Birmingham</t>
   </si>
+  <si>
+    <t>Does anything else need doing relating to this?</t>
+  </si>
+  <si>
+    <t>Why this was done?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="d"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="d"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -591,7 +597,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -719,22 +725,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1682,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CC03F1-69F5-44F9-B6AB-0FB9DFF6FAEC}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1693,9 +1699,11 @@
     <col min="1" max="1" width="16.08984375" customWidth="1"/>
     <col min="2" max="2" width="16.7265625" customWidth="1"/>
     <col min="3" max="3" width="44.54296875" style="54" customWidth="1"/>
+    <col min="4" max="4" width="55.453125" customWidth="1"/>
+    <col min="5" max="5" width="48.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1705,8 +1713,14 @@
       <c r="C1" s="54" t="s">
         <v>37</v>
       </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="53">
         <v>0.29329861111111111</v>
       </c>
@@ -1717,7 +1731,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="53">
         <v>0.37663194444444442</v>
       </c>
@@ -1728,7 +1742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="53">
         <v>0.37663194444444442</v>
       </c>
@@ -1739,7 +1753,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>0.45996527777777779</v>
       </c>
@@ -1750,7 +1764,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="53">
         <v>0.45996527777777779</v>
       </c>
@@ -1761,7 +1775,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="53">
         <v>0.50163194444444448</v>
       </c>

--- a/Documents/Time log and Project Timeline.xlsx
+++ b/Documents/Time log and Project Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1DAB10-E912-45B3-B1F3-E6D6D205BB41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AB18F9-B282-433F-8965-DEB7327412D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,10 +209,10 @@
     <t>Added notes to jupyter notebook. Filtered vehicle and casualties tables according to Birmingham</t>
   </si>
   <si>
-    <t>Does anything else need doing relating to this?</t>
-  </si>
-  <si>
-    <t>Why this was done?</t>
+    <t>Kirstine and Nicola</t>
+  </si>
+  <si>
+    <t>we sorted the variables into categrical and numerical for ex 1.</t>
   </si>
 </sst>
 </file>
@@ -1688,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CC03F1-69F5-44F9-B6AB-0FB9DFF6FAEC}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1699,11 +1699,9 @@
     <col min="1" max="1" width="16.08984375" customWidth="1"/>
     <col min="2" max="2" width="16.7265625" customWidth="1"/>
     <col min="3" max="3" width="44.54296875" style="54" customWidth="1"/>
-    <col min="4" max="4" width="55.453125" customWidth="1"/>
-    <col min="5" max="5" width="48.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1713,14 +1711,8 @@
       <c r="C1" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="53">
         <v>0.29329861111111111</v>
       </c>
@@ -1731,7 +1723,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="53">
         <v>0.37663194444444442</v>
       </c>
@@ -1742,7 +1734,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="53">
         <v>0.37663194444444442</v>
       </c>
@@ -1753,7 +1745,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>0.45996527777777779</v>
       </c>
@@ -1764,7 +1756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="53">
         <v>0.45996527777777779</v>
       </c>
@@ -1775,7 +1767,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="53">
         <v>0.50163194444444448</v>
       </c>
@@ -1784,6 +1776,17 @@
       </c>
       <c r="C7" s="54" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="53">
+        <v>0.50163194444444448</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Time log and Project Timeline.xlsx
+++ b/Documents/Time log and Project Timeline.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AB18F9-B282-433F-8965-DEB7327412D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DA72B8-3C8D-1045-A1AD-7571352F5D02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="460" windowWidth="19420" windowHeight="11020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -197,9 +197,6 @@
     <t>Emma</t>
   </si>
   <si>
-    <t>started jupyter notebook, loaded data, and began filtering</t>
-  </si>
-  <si>
     <t>Danielle</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>we sorted the variables into categrical and numerical for ex 1.</t>
+  </si>
+  <si>
+    <t>started jupyter notebook, loaded data, and began filtering.. Started to work in pandas because maybe it would be easier but regret it now lol</t>
   </si>
 </sst>
 </file>
@@ -792,7 +792,7 @@
     <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
@@ -1350,9 +1350,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>63500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>63</xdr:col>
@@ -1691,17 +1691,17 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="44.54296875" style="54" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.5" style="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="53">
         <v>0.29329861111111111</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="53">
         <v>0.37663194444444442</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="53">
         <v>0.37663194444444442</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="53">
         <v>0.45996527777777779</v>
       </c>
@@ -1753,40 +1753,40 @@
         <v>45</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="53">
         <v>0.45996527777777779</v>
       </c>
       <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="54" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="53">
         <v>0.50163194444444448</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="53">
         <v>0.50163194444444448</v>
       </c>
       <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="54" t="s">
         <v>50</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1806,21 +1806,21 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="2.7265625" customWidth="1"/>
-    <col min="9" max="64" width="3.54296875" customWidth="1"/>
-    <col min="69" max="70" width="10.26953125"/>
+    <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="9" max="64" width="3.5" customWidth="1"/>
+    <col min="69" max="70" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
@@ -1859,7 +1859,7 @@
       <c r="AF1" s="20"/>
       <c r="AG1" s="20"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
@@ -1899,7 +1899,7 @@
       <c r="AE2" s="57"/>
       <c r="AF2" s="57"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
@@ -1915,7 +1915,7 @@
       <c r="G3" s="62"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>20</v>
       </c>
@@ -2007,7 +2007,7 @@
       <c r="BK4" s="44"/>
       <c r="BL4" s="44"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>21</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="6" spans="1:64" s="20" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" s="20" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>22</v>
       </c>
@@ -2311,7 +2311,7 @@
       <c r="BK6" s="47"/>
       <c r="BL6" s="48"/>
     </row>
-    <row r="7" spans="1:64" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:64" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>T</v>
       </c>
     </row>
-    <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>28</v>
       </c>
@@ -2626,7 +2626,7 @@
       <c r="BK8" s="36"/>
       <c r="BL8" s="36"/>
     </row>
-    <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="42" t="s">
         <v>32</v>
@@ -2866,7 +2866,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="41" t="s">
         <v>31</v>
@@ -3106,7 +3106,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="41" t="s">
         <v>2</v>
@@ -3342,7 +3342,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="41" t="s">
         <v>3</v>
@@ -3578,7 +3578,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="41" t="s">
         <v>0</v>
@@ -3814,7 +3814,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="41" t="s">
         <v>1</v>
@@ -4050,7 +4050,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>7</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>29</v>
       </c>
@@ -4358,12 +4358,12 @@
       <c r="BK16" s="37"/>
       <c r="BL16" s="37"/>
     </row>
-    <row r="17" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" s="5"/>
       <c r="G17" s="16"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="6"/>
     </row>
   </sheetData>
@@ -4472,9 +4472,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>63500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>63</xdr:col>
@@ -4563,33 +4563,33 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.1796875" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="87.1640625" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="84.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="84.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>

--- a/Documents/Time log and Project Timeline.xlsx
+++ b/Documents/Time log and Project Timeline.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DA72B8-3C8D-1045-A1AD-7571352F5D02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E26D7A-458B-4F85-8613-BED9B2AB6C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="460" windowWidth="19420" windowHeight="11020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Task 3</t>
   </si>
@@ -213,6 +213,33 @@
   </si>
   <si>
     <t>started jupyter notebook, loaded data, and began filtering.. Started to work in pandas because maybe it would be easier but regret it now lol</t>
+  </si>
+  <si>
+    <t>Why was this done in this way(if applicable)</t>
+  </si>
+  <si>
+    <t>Anything that still needs doing / other comments</t>
+  </si>
+  <si>
+    <t>Danielle and Nicola</t>
+  </si>
+  <si>
+    <t>converted pandas to np in a new jupyter notebook</t>
+  </si>
+  <si>
+    <t>more familiar with np than pandas</t>
+  </si>
+  <si>
+    <t>Emma, karlis, Kristine</t>
+  </si>
+  <si>
+    <t>organisation</t>
+  </si>
+  <si>
+    <t>sorted out to do list on tasks, discussed project planning and due dates for parts of the project</t>
+  </si>
+  <si>
+    <t>keep to do list up to date</t>
   </si>
 </sst>
 </file>
@@ -792,7 +819,7 @@
     <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="2" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
@@ -1688,20 +1715,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CC03F1-69F5-44F9-B6AB-0FB9DFF6FAEC}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="44.5" style="54" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="44.453125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" customWidth="1"/>
+    <col min="5" max="5" width="42.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1711,8 +1740,14 @@
       <c r="C1" s="54" t="s">
         <v>37</v>
       </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="53">
         <v>0.29329861111111111</v>
       </c>
@@ -1723,7 +1758,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="53">
         <v>0.37663194444444442</v>
       </c>
@@ -1734,7 +1769,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="53">
         <v>0.37663194444444442</v>
       </c>
@@ -1745,7 +1780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>0.45996527777777779</v>
       </c>
@@ -1756,7 +1791,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="53">
         <v>0.45996527777777779</v>
       </c>
@@ -1767,7 +1802,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="53">
         <v>0.50163194444444448</v>
       </c>
@@ -1778,7 +1813,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="53">
         <v>0.50163194444444448</v>
       </c>
@@ -1787,6 +1822,37 @@
       </c>
       <c r="C8" s="54" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="53">
+        <v>0.50163194444444448</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="53">
+        <v>0.50163194444444448</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1806,21 +1872,21 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" customWidth="1"/>
-    <col min="9" max="64" width="3.5" customWidth="1"/>
-    <col min="69" max="70" width="10.33203125"/>
+    <col min="1" max="1" width="2.6328125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="2.6328125" customWidth="1"/>
+    <col min="9" max="64" width="3.453125" customWidth="1"/>
+    <col min="69" max="70" width="10.36328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
@@ -1859,7 +1925,7 @@
       <c r="AF1" s="20"/>
       <c r="AG1" s="20"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
@@ -1899,7 +1965,7 @@
       <c r="AE2" s="57"/>
       <c r="AF2" s="57"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
@@ -1915,7 +1981,7 @@
       <c r="G3" s="62"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="15" t="s">
         <v>20</v>
       </c>
@@ -2007,7 +2073,7 @@
       <c r="BK4" s="44"/>
       <c r="BL4" s="44"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>21</v>
       </c>
@@ -2243,7 +2309,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="6" spans="1:64" s="20" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:64" s="20" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>22</v>
       </c>
@@ -2311,7 +2377,7 @@
       <c r="BK6" s="47"/>
       <c r="BL6" s="48"/>
     </row>
-    <row r="7" spans="1:64" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
@@ -2559,7 +2625,7 @@
         <v>T</v>
       </c>
     </row>
-    <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
         <v>28</v>
       </c>
@@ -2626,7 +2692,7 @@
       <c r="BK8" s="36"/>
       <c r="BL8" s="36"/>
     </row>
-    <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
       <c r="B9" s="42" t="s">
         <v>32</v>
@@ -2866,7 +2932,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14"/>
       <c r="B10" s="41" t="s">
         <v>31</v>
@@ -3106,7 +3172,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14"/>
       <c r="B11" s="41" t="s">
         <v>2</v>
@@ -3342,7 +3408,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="41" t="s">
         <v>3</v>
@@ -3578,7 +3644,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="B13" s="41" t="s">
         <v>0</v>
@@ -3814,7 +3880,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
       <c r="B14" s="41" t="s">
         <v>1</v>
@@ -4050,7 +4116,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>7</v>
       </c>
@@ -4288,7 +4354,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15" t="s">
         <v>29</v>
       </c>
@@ -4358,12 +4424,12 @@
       <c r="BK16" s="37"/>
       <c r="BL16" s="37"/>
     </row>
-    <row r="17" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D17" s="5"/>
       <c r="G17" s="16"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D18" s="6"/>
     </row>
   </sheetData>
@@ -4563,33 +4629,33 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.1640625" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="8"/>
+    <col min="1" max="1" width="87.1796875" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="84.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="84.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>

--- a/Documents/Time log and Project Timeline.xlsx
+++ b/Documents/Time log and Project Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E26D7A-458B-4F85-8613-BED9B2AB6C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2BE5FF-A6A7-411F-9E23-8FE77EA38DB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Task 3</t>
   </si>
@@ -197,6 +197,9 @@
     <t>Emma</t>
   </si>
   <si>
+    <t>started jupyter notebook, loaded data, and began filtering</t>
+  </si>
+  <si>
     <t>Danielle</t>
   </si>
   <si>
@@ -212,34 +215,22 @@
     <t>we sorted the variables into categrical and numerical for ex 1.</t>
   </si>
   <si>
-    <t>started jupyter notebook, loaded data, and began filtering.. Started to work in pandas because maybe it would be easier but regret it now lol</t>
-  </si>
-  <si>
-    <t>Why was this done in this way(if applicable)</t>
-  </si>
-  <si>
-    <t>Anything that still needs doing / other comments</t>
-  </si>
-  <si>
-    <t>Danielle and Nicola</t>
-  </si>
-  <si>
-    <t>converted pandas to np in a new jupyter notebook</t>
-  </si>
-  <si>
-    <t>more familiar with np than pandas</t>
-  </si>
-  <si>
-    <t>Emma, karlis, Kristine</t>
-  </si>
-  <si>
-    <t>organisation</t>
-  </si>
-  <si>
-    <t>sorted out to do list on tasks, discussed project planning and due dates for parts of the project</t>
-  </si>
-  <si>
-    <t>keep to do list up to date</t>
+    <t>some stuff missing in merge,</t>
+  </si>
+  <si>
+    <t>Why it was done</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Dee and Nicola</t>
+  </si>
+  <si>
+    <t>checked missing values or out of range values  for numerical values and check all ids on casualties and vehicles sheets were also on the accidents sheet</t>
+  </si>
+  <si>
+    <t>some missing value values are -1 these should be changed or dealt with carefully if numerically analysing the data see jupyter for info on which varables.</t>
   </si>
 </sst>
 </file>
@@ -1377,9 +1368,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
+          <xdr:colOff>31750</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>63</xdr:col>
@@ -1717,17 +1708,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CC03F1-69F5-44F9-B6AB-0FB9DFF6FAEC}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="44.453125" style="54" customWidth="1"/>
-    <col min="4" max="4" width="37.453125" customWidth="1"/>
-    <col min="5" max="5" width="42.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="44.54296875" style="54" customWidth="1"/>
+    <col min="4" max="4" width="33.90625" customWidth="1"/>
+    <col min="5" max="5" width="39.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1741,10 +1732,10 @@
         <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1788,7 +1779,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1796,10 +1787,10 @@
         <v>0.45996527777777779</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1807,10 +1798,10 @@
         <v>0.50163194444444448</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1818,41 +1809,26 @@
         <v>0.50163194444444448</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="53">
-        <v>0.50163194444444448</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="54" t="s">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>55</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" s="54" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="53">
-        <v>0.50163194444444448</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="E10" s="54" t="s">
         <v>57</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1868,22 +1844,22 @@
   </sheetPr>
   <dimension ref="A1:BL18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" topLeftCell="B4" zoomScale="78" zoomScaleNormal="10" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="A5" zoomScale="78" zoomScaleNormal="10" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.6328125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" style="14" customWidth="1"/>
     <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" customWidth="1"/>
     <col min="6" max="6" width="10.453125" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="2.6328125" customWidth="1"/>
-    <col min="9" max="64" width="3.453125" customWidth="1"/>
-    <col min="69" max="70" width="10.36328125"/>
+    <col min="8" max="8" width="2.7265625" customWidth="1"/>
+    <col min="9" max="64" width="3.54296875" customWidth="1"/>
+    <col min="69" max="70" width="10.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
@@ -2309,7 +2285,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="6" spans="1:64" s="20" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" s="20" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>22</v>
       </c>
@@ -4538,9 +4514,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:colOff>31750</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>63</xdr:col>
@@ -4640,7 +4616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="84.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="84.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>24</v>
       </c>

--- a/Documents/Time log and Project Timeline.xlsx
+++ b/Documents/Time log and Project Timeline.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2BE5FF-A6A7-411F-9E23-8FE77EA38DB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57304EF-ED3A-4DD6-A363-7206C1175746}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>Task 3</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>some missing value values are -1 these should be changed or dealt with carefully if numerically analysing the data see jupyter for info on which varables.</t>
+  </si>
+  <si>
+    <t>Karlis,Emma, Kristine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 number summeery(leaving out some values), boxplot,histograms. </t>
   </si>
 </sst>
 </file>
@@ -1368,15 +1374,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>30480</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>63</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>243840</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1706,22 +1712,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CC03F1-69F5-44F9-B6AB-0FB9DFF6FAEC}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="44.54296875" style="54" customWidth="1"/>
-    <col min="4" max="4" width="33.90625" customWidth="1"/>
-    <col min="5" max="5" width="39.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="44.5546875" style="54" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" customWidth="1"/>
+    <col min="5" max="5" width="39.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1738,7 +1744,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="53">
         <v>0.29329861111111111</v>
       </c>
@@ -1749,7 +1755,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53">
         <v>0.37663194444444442</v>
       </c>
@@ -1760,7 +1766,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53">
         <v>0.37663194444444442</v>
       </c>
@@ -1771,7 +1777,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53">
         <v>0.45996527777777779</v>
       </c>
@@ -1782,7 +1788,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="53">
         <v>0.45996527777777779</v>
       </c>
@@ -1793,7 +1799,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="53">
         <v>0.50163194444444448</v>
       </c>
@@ -1804,7 +1810,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="53">
         <v>0.50163194444444448</v>
       </c>
@@ -1815,12 +1821,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>55</v>
       </c>
@@ -1829,6 +1835,17 @@
       </c>
       <c r="E10" s="54" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="53">
+        <v>0.62663194444444448</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1848,21 +1865,21 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="2.7265625" customWidth="1"/>
-    <col min="9" max="64" width="3.54296875" customWidth="1"/>
-    <col min="69" max="70" width="10.26953125"/>
+    <col min="1" max="1" width="2.77734375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="2.77734375" customWidth="1"/>
+    <col min="9" max="64" width="3.5546875" customWidth="1"/>
+    <col min="69" max="70" width="10.21875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
@@ -1901,7 +1918,7 @@
       <c r="AF1" s="20"/>
       <c r="AG1" s="20"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
@@ -1941,7 +1958,7 @@
       <c r="AE2" s="57"/>
       <c r="AF2" s="57"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
@@ -1957,7 +1974,7 @@
       <c r="G3" s="62"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
         <v>20</v>
       </c>
@@ -2049,7 +2066,7 @@
       <c r="BK4" s="44"/>
       <c r="BL4" s="44"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>21</v>
       </c>
@@ -2285,7 +2302,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="6" spans="1:64" s="20" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" s="20" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>22</v>
       </c>
@@ -2353,7 +2370,7 @@
       <c r="BK6" s="47"/>
       <c r="BL6" s="48"/>
     </row>
-    <row r="7" spans="1:64" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:64" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
@@ -2601,7 +2618,7 @@
         <v>T</v>
       </c>
     </row>
-    <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>28</v>
       </c>
@@ -2668,7 +2685,7 @@
       <c r="BK8" s="36"/>
       <c r="BL8" s="36"/>
     </row>
-    <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="42" t="s">
         <v>32</v>
@@ -2908,7 +2925,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="41" t="s">
         <v>31</v>
@@ -3148,7 +3165,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="41" t="s">
         <v>2</v>
@@ -3384,7 +3401,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="41" t="s">
         <v>3</v>
@@ -3620,7 +3637,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="41" t="s">
         <v>0</v>
@@ -3856,7 +3873,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="41" t="s">
         <v>1</v>
@@ -4092,7 +4109,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>7</v>
       </c>
@@ -4330,7 +4347,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>29</v>
       </c>
@@ -4400,12 +4417,12 @@
       <c r="BK16" s="37"/>
       <c r="BL16" s="37"/>
     </row>
-    <row r="17" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="5"/>
       <c r="G17" s="16"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="6"/>
     </row>
   </sheetData>
@@ -4514,15 +4531,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>30480</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>63</xdr:col>
                     <xdr:colOff>228600</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>243840</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4605,18 +4622,18 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.1796875" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="87.21875" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.21875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="84.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="84.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
@@ -4626,7 +4643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="205.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>30</v>
       </c>

--- a/Documents/Time log and Project Timeline.xlsx
+++ b/Documents/Time log and Project Timeline.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57304EF-ED3A-4DD6-A363-7206C1175746}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F957DE92-7E1C-4671-9440-5F0E67C21780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3225" windowWidth="21600" windowHeight="11265" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Task 3</t>
   </si>
@@ -238,14 +238,23 @@
   <si>
     <t xml:space="preserve">5 number summeery(leaving out some values), boxplot,histograms. </t>
   </si>
+  <si>
+    <t>8:00-12:00</t>
+  </si>
+  <si>
+    <t>Kirstine and Dee</t>
+  </si>
+  <si>
+    <t>Single variable analysis with barplots. Working towards and discussed research question</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="d"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -621,7 +630,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -749,22 +758,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1374,15 +1383,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>63</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>243840</xdr:rowOff>
+          <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1712,22 +1721,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CC03F1-69F5-44F9-B6AB-0FB9DFF6FAEC}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="44.5546875" style="54" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" customWidth="1"/>
-    <col min="5" max="5" width="39.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1744,7 +1753,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53">
         <v>0.29329861111111111</v>
       </c>
@@ -1755,7 +1764,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53">
         <v>0.37663194444444442</v>
       </c>
@@ -1766,7 +1775,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53">
         <v>0.37663194444444442</v>
       </c>
@@ -1777,7 +1786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53">
         <v>0.45996527777777779</v>
       </c>
@@ -1788,7 +1797,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53">
         <v>0.45996527777777779</v>
       </c>
@@ -1799,7 +1808,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53">
         <v>0.50163194444444448</v>
       </c>
@@ -1810,7 +1819,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="53">
         <v>0.50163194444444448</v>
       </c>
@@ -1821,12 +1830,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>55</v>
       </c>
@@ -1837,7 +1846,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53">
         <v>0.62663194444444448</v>
       </c>
@@ -1846,6 +1855,17 @@
       </c>
       <c r="C11" s="54" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1865,21 +1885,21 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="2.77734375" customWidth="1"/>
-    <col min="9" max="64" width="3.5546875" customWidth="1"/>
-    <col min="69" max="70" width="10.21875"/>
+    <col min="1" max="1" width="2.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" customWidth="1"/>
+    <col min="9" max="64" width="3.5703125" customWidth="1"/>
+    <col min="69" max="70" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
@@ -1918,7 +1938,7 @@
       <c r="AF1" s="20"/>
       <c r="AG1" s="20"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
@@ -1958,7 +1978,7 @@
       <c r="AE2" s="57"/>
       <c r="AF2" s="57"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
@@ -1974,7 +1994,7 @@
       <c r="G3" s="62"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>20</v>
       </c>
@@ -2066,7 +2086,7 @@
       <c r="BK4" s="44"/>
       <c r="BL4" s="44"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>21</v>
       </c>
@@ -2302,7 +2322,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="6" spans="1:64" s="20" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" s="20" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>22</v>
       </c>
@@ -2370,7 +2390,7 @@
       <c r="BK6" s="47"/>
       <c r="BL6" s="48"/>
     </row>
-    <row r="7" spans="1:64" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
@@ -2618,7 +2638,7 @@
         <v>T</v>
       </c>
     </row>
-    <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>28</v>
       </c>
@@ -2685,7 +2705,7 @@
       <c r="BK8" s="36"/>
       <c r="BL8" s="36"/>
     </row>
-    <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="42" t="s">
         <v>32</v>
@@ -2925,7 +2945,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="41" t="s">
         <v>31</v>
@@ -3165,7 +3185,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="41" t="s">
         <v>2</v>
@@ -3401,7 +3421,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="41" t="s">
         <v>3</v>
@@ -3637,7 +3657,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="41" t="s">
         <v>0</v>
@@ -3873,7 +3893,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="41" t="s">
         <v>1</v>
@@ -4109,7 +4129,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>7</v>
       </c>
@@ -4347,7 +4367,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>29</v>
       </c>
@@ -4417,12 +4437,12 @@
       <c r="BK16" s="37"/>
       <c r="BL16" s="37"/>
     </row>
-    <row r="17" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="5"/>
       <c r="G17" s="16"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="6"/>
     </row>
   </sheetData>
@@ -4531,15 +4551,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>30480</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>63</xdr:col>
                     <xdr:colOff>228600</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>243840</xdr:rowOff>
+                    <xdr:rowOff>247650</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4622,33 +4642,33 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.21875" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="8"/>
+    <col min="1" max="1" width="87.28515625" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="84.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="84.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="205.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="205.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>

--- a/Documents/Time log and Project Timeline.xlsx
+++ b/Documents/Time log and Project Timeline.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F957DE92-7E1C-4671-9440-5F0E67C21780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E4B888-65C3-4ED2-80BC-40349FD397E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3225" windowWidth="21600" windowHeight="11265" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>Task 3</t>
   </si>
@@ -247,14 +247,20 @@
   <si>
     <t>Single variable analysis with barplots. Working towards and discussed research question</t>
   </si>
+  <si>
+    <t>checked for matching numer of entries in accident and vehicle tables corresponding to entries in accident table</t>
+  </si>
+  <si>
+    <t>They match</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="d"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="d"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -630,7 +636,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -758,22 +764,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1383,7 +1389,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>31750</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
@@ -1721,22 +1727,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CC03F1-69F5-44F9-B6AB-0FB9DFF6FAEC}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" style="54" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" customWidth="1"/>
-    <col min="5" max="5" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="44.54296875" style="54" customWidth="1"/>
+    <col min="4" max="4" width="33.81640625" customWidth="1"/>
+    <col min="5" max="5" width="39.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1753,7 +1759,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="53">
         <v>0.29329861111111111</v>
       </c>
@@ -1764,7 +1770,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="53">
         <v>0.37663194444444442</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="53">
         <v>0.37663194444444442</v>
       </c>
@@ -1786,7 +1792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>0.45996527777777779</v>
       </c>
@@ -1797,7 +1803,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="53">
         <v>0.45996527777777779</v>
       </c>
@@ -1808,7 +1814,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="53">
         <v>0.50163194444444448</v>
       </c>
@@ -1819,7 +1825,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="53">
         <v>0.50163194444444448</v>
       </c>
@@ -1830,12 +1836,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="55.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>55</v>
       </c>
@@ -1846,7 +1852,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="53">
         <v>0.62663194444444448</v>
       </c>
@@ -1857,7 +1863,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -1866,6 +1872,20 @@
       </c>
       <c r="C12" s="54" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="73" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="53">
+        <v>0.79329861111111111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1885,21 +1905,21 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" customWidth="1"/>
-    <col min="9" max="64" width="3.5703125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="1" max="1" width="2.7265625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="2.7265625" customWidth="1"/>
+    <col min="9" max="64" width="3.54296875" customWidth="1"/>
+    <col min="69" max="70" width="10.26953125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
@@ -1938,7 +1958,7 @@
       <c r="AF1" s="20"/>
       <c r="AG1" s="20"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
@@ -1978,7 +1998,7 @@
       <c r="AE2" s="57"/>
       <c r="AF2" s="57"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
@@ -1994,7 +2014,7 @@
       <c r="G3" s="62"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="15" t="s">
         <v>20</v>
       </c>
@@ -2086,7 +2106,7 @@
       <c r="BK4" s="44"/>
       <c r="BL4" s="44"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>21</v>
       </c>
@@ -2322,7 +2342,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="6" spans="1:64" s="20" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" s="20" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>22</v>
       </c>
@@ -2390,7 +2410,7 @@
       <c r="BK6" s="47"/>
       <c r="BL6" s="48"/>
     </row>
-    <row r="7" spans="1:64" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
@@ -2638,7 +2658,7 @@
         <v>T</v>
       </c>
     </row>
-    <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
         <v>28</v>
       </c>
@@ -2705,7 +2725,7 @@
       <c r="BK8" s="36"/>
       <c r="BL8" s="36"/>
     </row>
-    <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
       <c r="B9" s="42" t="s">
         <v>32</v>
@@ -2945,7 +2965,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14"/>
       <c r="B10" s="41" t="s">
         <v>31</v>
@@ -3185,7 +3205,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14"/>
       <c r="B11" s="41" t="s">
         <v>2</v>
@@ -3421,7 +3441,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="41" t="s">
         <v>3</v>
@@ -3657,7 +3677,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="B13" s="41" t="s">
         <v>0</v>
@@ -3893,7 +3913,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
       <c r="B14" s="41" t="s">
         <v>1</v>
@@ -4129,7 +4149,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>7</v>
       </c>
@@ -4367,7 +4387,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15" t="s">
         <v>29</v>
       </c>
@@ -4437,12 +4457,12 @@
       <c r="BK16" s="37"/>
       <c r="BL16" s="37"/>
     </row>
-    <row r="17" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D17" s="5"/>
       <c r="G17" s="16"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D18" s="6"/>
     </row>
   </sheetData>
@@ -4551,7 +4571,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>31750</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
@@ -4642,33 +4662,33 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.28515625" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="8"/>
+    <col min="1" max="1" width="87.26953125" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.26953125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="84.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="84.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="205.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="205.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>

--- a/Documents/Time log and Project Timeline.xlsx
+++ b/Documents/Time log and Project Timeline.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E4B888-65C3-4ED2-80BC-40349FD397E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3850E0E-6DBF-43E5-A796-E46C7CC5AA21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="852" yWindow="720" windowWidth="22140" windowHeight="11328" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>Task 3</t>
   </si>
@@ -252,6 +252,15 @@
   </si>
   <si>
     <t>They match</t>
+  </si>
+  <si>
+    <t>Karlis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made the spatula for the sdata </t>
+  </si>
+  <si>
+    <t>Made the map (but it is undedeveloped currently)</t>
   </si>
 </sst>
 </file>
@@ -653,7 +662,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -820,6 +829,7 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Accent3" xfId="11" builtinId="37"/>
@@ -836,15 +846,6 @@
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
   <dxfs count="29">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1128,6 +1129,15 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -1389,15 +1399,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>30480</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>63</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>247650</xdr:rowOff>
+          <xdr:rowOff>251460</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1448,9 +1458,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name=" " dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="  " dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name=" " dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="  " dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="End" dataCellStyle="Comma [0]"/>
@@ -1727,22 +1737,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CC03F1-69F5-44F9-B6AB-0FB9DFF6FAEC}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="44.54296875" style="54" customWidth="1"/>
-    <col min="4" max="4" width="33.81640625" customWidth="1"/>
-    <col min="5" max="5" width="39.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="44.5546875" style="54" customWidth="1"/>
+    <col min="4" max="4" width="33.77734375" customWidth="1"/>
+    <col min="5" max="5" width="39.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1759,7 +1769,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="53">
         <v>0.29329861111111111</v>
       </c>
@@ -1770,7 +1780,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53">
         <v>0.37663194444444442</v>
       </c>
@@ -1781,7 +1791,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53">
         <v>0.37663194444444442</v>
       </c>
@@ -1792,7 +1802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53">
         <v>0.45996527777777779</v>
       </c>
@@ -1803,7 +1813,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="53">
         <v>0.45996527777777779</v>
       </c>
@@ -1814,7 +1824,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="53">
         <v>0.50163194444444448</v>
       </c>
@@ -1825,7 +1835,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="53">
         <v>0.50163194444444448</v>
       </c>
@@ -1836,12 +1846,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="55.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>55</v>
       </c>
@@ -1852,7 +1862,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="53">
         <v>0.62663194444444448</v>
       </c>
@@ -1863,7 +1873,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -1874,7 +1884,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="73" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="73.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="53">
         <v>0.79329861111111111</v>
       </c>
@@ -1886,6 +1896,28 @@
       </c>
       <c r="E13" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="66">
+        <v>0.79305555555555562</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="66">
+        <v>0.91805555555555562</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1905,21 +1937,21 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="2.7265625" customWidth="1"/>
-    <col min="9" max="64" width="3.54296875" customWidth="1"/>
-    <col min="69" max="70" width="10.26953125"/>
+    <col min="1" max="1" width="2.77734375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="2.77734375" customWidth="1"/>
+    <col min="9" max="64" width="3.5546875" customWidth="1"/>
+    <col min="69" max="70" width="10.21875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
@@ -1958,7 +1990,7 @@
       <c r="AF1" s="20"/>
       <c r="AG1" s="20"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
@@ -1998,7 +2030,7 @@
       <c r="AE2" s="57"/>
       <c r="AF2" s="57"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
@@ -2014,7 +2046,7 @@
       <c r="G3" s="62"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
         <v>20</v>
       </c>
@@ -2106,7 +2138,7 @@
       <c r="BK4" s="44"/>
       <c r="BL4" s="44"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>21</v>
       </c>
@@ -2342,7 +2374,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="6" spans="1:64" s="20" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" s="20" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>22</v>
       </c>
@@ -2410,7 +2442,7 @@
       <c r="BK6" s="47"/>
       <c r="BL6" s="48"/>
     </row>
-    <row r="7" spans="1:64" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:64" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
@@ -2658,7 +2690,7 @@
         <v>T</v>
       </c>
     </row>
-    <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>28</v>
       </c>
@@ -2725,7 +2757,7 @@
       <c r="BK8" s="36"/>
       <c r="BL8" s="36"/>
     </row>
-    <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="42" t="s">
         <v>32</v>
@@ -2965,7 +2997,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="41" t="s">
         <v>31</v>
@@ -3205,7 +3237,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="41" t="s">
         <v>2</v>
@@ -3441,7 +3473,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="41" t="s">
         <v>3</v>
@@ -3677,7 +3709,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="41" t="s">
         <v>0</v>
@@ -3913,7 +3945,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="41" t="s">
         <v>1</v>
@@ -4149,7 +4181,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>7</v>
       </c>
@@ -4387,7 +4419,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>29</v>
       </c>
@@ -4457,12 +4489,12 @@
       <c r="BK16" s="37"/>
       <c r="BL16" s="37"/>
     </row>
-    <row r="17" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="5"/>
       <c r="G17" s="16"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="6"/>
     </row>
   </sheetData>
@@ -4492,56 +4524,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL16">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AM4">
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:BL4">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>AND(J$5&lt;=EOMONTH($I$5,2),J$5&gt;EOMONTH($I$5,0),J$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:BL4">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BL15">
-    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="24" stopIfTrue="1">
       <formula>AND($C8="Low Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="43" stopIfTrue="1">
       <formula>AND($C8="High Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="61" stopIfTrue="1">
       <formula>AND($C8="On Track",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="62" stopIfTrue="1">
       <formula>AND($C8="Med Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="63" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="7" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="71" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="72" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="73" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="74" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="75" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4571,15 +4603,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>30480</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>63</xdr:col>
                     <xdr:colOff>228600</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>247650</xdr:rowOff>
+                    <xdr:rowOff>251460</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4662,18 +4694,18 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.26953125" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.26953125" style="8"/>
+    <col min="1" max="1" width="87.21875" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.21875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="84.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="84.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
@@ -4683,7 +4715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="205.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="205.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>30</v>
       </c>
